--- a/EMPLOYEE.xlsx
+++ b/EMPLOYEE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kojo-\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E158D80-3A6A-469B-B12E-97FD8B79EBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2515E294-2874-40CE-A839-B2FD87232EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{C9225265-487A-48A2-AB79-FDB817AAE232}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -44,151 +44,160 @@
     <t>EmployeeName</t>
   </si>
   <si>
-    <t>NumOfHrsWrkd</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Emily</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Jessica</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Sarah</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
-    <t>Andrew</t>
-  </si>
-  <si>
-    <t>Samantha</t>
-  </si>
-  <si>
-    <t>Matthew</t>
-  </si>
-  <si>
-    <t>Amanda</t>
-  </si>
-  <si>
-    <t>Ryan</t>
-  </si>
-  <si>
-    <t>Laura</t>
-  </si>
-  <si>
-    <t>Nicholas</t>
-  </si>
-  <si>
-    <t>Elizabeth</t>
-  </si>
-  <si>
-    <t>Christopher</t>
-  </si>
-  <si>
-    <t>Megan</t>
-  </si>
-  <si>
-    <t>Kevin</t>
-  </si>
-  <si>
-    <t>Ashley</t>
-  </si>
-  <si>
-    <t>Justin</t>
-  </si>
-  <si>
-    <t>Heather</t>
-  </si>
-  <si>
-    <t>Brian</t>
-  </si>
-  <si>
-    <t>Lauren</t>
-  </si>
-  <si>
-    <t>Jonathan</t>
-  </si>
-  <si>
-    <t>Stephanie</t>
-  </si>
-  <si>
-    <t>Eric</t>
-  </si>
-  <si>
-    <t>Rachel</t>
-  </si>
-  <si>
-    <t>Brandon</t>
-  </si>
-  <si>
-    <t>Michelle</t>
-  </si>
-  <si>
-    <t>Timothy</t>
-  </si>
-  <si>
-    <t>Brittany</t>
-  </si>
-  <si>
-    <t>Joshua</t>
-  </si>
-  <si>
-    <t>Kimberly</t>
-  </si>
-  <si>
-    <t>Joseph</t>
-  </si>
-  <si>
-    <t>Danielle</t>
-  </si>
-  <si>
-    <t>Patrick</t>
-  </si>
-  <si>
-    <t>Olivia</t>
-  </si>
-  <si>
-    <t>Tyler</t>
-  </si>
-  <si>
-    <t>Rebecca</t>
-  </si>
-  <si>
-    <t>Cody</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t>Zachary</t>
-  </si>
-  <si>
-    <t>Haley</t>
-  </si>
-  <si>
-    <t>Benjamin</t>
-  </si>
-  <si>
-    <t>Kelsey</t>
-  </si>
-  <si>
-    <t>Jordan</t>
+    <t>NumOfHrsWorked</t>
+  </si>
+  <si>
+    <t>StoreID</t>
+  </si>
+  <si>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>Sarah Johnson</t>
+  </si>
+  <si>
+    <t>Michael Williams</t>
+  </si>
+  <si>
+    <t>Emily Davis</t>
+  </si>
+  <si>
+    <t>Andrew Wilson</t>
+  </si>
+  <si>
+    <t>Jessica Brown</t>
+  </si>
+  <si>
+    <t>William Taylor</t>
+  </si>
+  <si>
+    <t>Olivia Martinez</t>
+  </si>
+  <si>
+    <t>Ethan Anderson</t>
+  </si>
+  <si>
+    <t>Sophia Rodriguez</t>
+  </si>
+  <si>
+    <t>James Lee</t>
+  </si>
+  <si>
+    <t>Mia Clark</t>
+  </si>
+  <si>
+    <t>Jacob Hall</t>
+  </si>
+  <si>
+    <t>Ava Lewis</t>
+  </si>
+  <si>
+    <t>Benjamin Baker</t>
+  </si>
+  <si>
+    <t>Harper Scott</t>
+  </si>
+  <si>
+    <t>Amelia Young</t>
+  </si>
+  <si>
+    <t>Alexander King</t>
+  </si>
+  <si>
+    <t>Chloe Adams</t>
+  </si>
+  <si>
+    <t>Samuel White</t>
+  </si>
+  <si>
+    <t>Abigail Harris</t>
+  </si>
+  <si>
+    <t>Daniel Green</t>
+  </si>
+  <si>
+    <t>Grace Hall</t>
+  </si>
+  <si>
+    <t>Noah Collins</t>
+  </si>
+  <si>
+    <t>Lily Morgan</t>
+  </si>
+  <si>
+    <t>Christopher Perez</t>
+  </si>
+  <si>
+    <t>Sofia Lopez</t>
+  </si>
+  <si>
+    <t>William Turner</t>
+  </si>
+  <si>
+    <t>Natalie Reed</t>
+  </si>
+  <si>
+    <t>Lucas Phillips</t>
+  </si>
+  <si>
+    <t>Evelyn Morris</t>
+  </si>
+  <si>
+    <t>Jack Garcia</t>
+  </si>
+  <si>
+    <t>Emily Cooper</t>
+  </si>
+  <si>
+    <t>Mason Parker</t>
+  </si>
+  <si>
+    <t>Zoe Bennett</t>
+  </si>
+  <si>
+    <t>Victoria Rivera</t>
+  </si>
+  <si>
+    <t>Oliver Ward</t>
+  </si>
+  <si>
+    <t>Scarlett Diaz</t>
+  </si>
+  <si>
+    <t>Henry Stewart</t>
+  </si>
+  <si>
+    <t>Ella Watson</t>
+  </si>
+  <si>
+    <t>William Murphy</t>
+  </si>
+  <si>
+    <t>Ava Hill</t>
+  </si>
+  <si>
+    <t>Ethan Reed</t>
+  </si>
+  <si>
+    <t>Lily Turner</t>
+  </si>
+  <si>
+    <t>Logan Bennett</t>
+  </si>
+  <si>
+    <t>Harper Diaz</t>
+  </si>
+  <si>
+    <t>Noah Mitchell</t>
+  </si>
+  <si>
+    <t>Sophia Hayes</t>
+  </si>
+  <si>
+    <t>Mia Johnson</t>
+  </si>
+  <si>
+    <t>Benjamin Clark</t>
   </si>
 </sst>
 </file>
@@ -296,16 +305,16 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -642,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A759585F-DD02-4AF5-8CA8-0EE79F212DFB}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,565 +664,718 @@
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>40</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>35</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="3">
+        <v>38</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3">
+        <v>42</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3">
+        <v>37</v>
+      </c>
+      <c r="D6" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>45</v>
+      </c>
+      <c r="D7" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
+        <v>39</v>
+      </c>
+      <c r="D8" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3">
+        <v>36</v>
+      </c>
+      <c r="D9" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3">
+        <v>41</v>
+      </c>
+      <c r="D10" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3">
+        <v>43</v>
+      </c>
+      <c r="D11" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="4">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3">
+        <v>40</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3">
+        <v>35</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3">
+        <v>38</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3">
+        <v>42</v>
+      </c>
+      <c r="D15" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3">
+        <v>37</v>
+      </c>
+      <c r="D16" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3">
+        <v>45</v>
+      </c>
+      <c r="D17" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3">
+        <v>39</v>
+      </c>
+      <c r="D18" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="C19" s="3">
+        <v>36</v>
+      </c>
+      <c r="D19" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="C20" s="3">
+        <v>41</v>
+      </c>
+      <c r="D20" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="C21" s="3">
+        <v>43</v>
+      </c>
+      <c r="D21" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="C22" s="3">
+        <v>40</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="C23" s="3">
+        <v>35</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="C24" s="3">
+        <v>38</v>
+      </c>
+      <c r="D24" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="C25" s="3">
+        <v>42</v>
+      </c>
+      <c r="D25" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="C26" s="3">
+        <v>37</v>
+      </c>
+      <c r="D26" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="4">
+        <v>29</v>
+      </c>
+      <c r="C27" s="3">
+        <v>45</v>
+      </c>
+      <c r="D27" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="C28" s="3">
+        <v>39</v>
+      </c>
+      <c r="D28" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="4">
+        <v>31</v>
+      </c>
+      <c r="C29" s="3">
+        <v>36</v>
+      </c>
+      <c r="D29" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="4">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="C30" s="3">
+        <v>41</v>
+      </c>
+      <c r="D30" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="C31" s="3">
+        <v>43</v>
+      </c>
+      <c r="D31" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="C32" s="3">
+        <v>40</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="C33" s="3">
+        <v>35</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="C34" s="3">
+        <v>38</v>
+      </c>
+      <c r="D34" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="C35" s="3">
+        <v>42</v>
+      </c>
+      <c r="D35" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="3">
         <v>37</v>
       </c>
-      <c r="C36" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="4">
+        <v>39</v>
+      </c>
+      <c r="C37" s="3">
+        <v>45</v>
+      </c>
+      <c r="D37" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="C38" s="3">
+        <v>39</v>
+      </c>
+      <c r="D38" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="4">
+        <v>41</v>
+      </c>
+      <c r="C39" s="3">
+        <v>36</v>
+      </c>
+      <c r="D39" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="4">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="C40" s="3">
+        <v>41</v>
+      </c>
+      <c r="D40" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="C41" s="3">
+        <v>43</v>
+      </c>
+      <c r="D41" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="C42" s="3">
+        <v>40</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="C43" s="3">
+        <v>35</v>
+      </c>
+      <c r="D43" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="C44" s="3">
+        <v>38</v>
+      </c>
+      <c r="D44" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="C45" s="3">
+        <v>42</v>
+      </c>
+      <c r="D45" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="C46" s="3">
+        <v>37</v>
+      </c>
+      <c r="D46" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="4">
+        <v>49</v>
+      </c>
+      <c r="C47" s="3">
+        <v>45</v>
+      </c>
+      <c r="D47" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="C48" s="3">
+        <v>39</v>
+      </c>
+      <c r="D48" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="4">
+        <v>51</v>
+      </c>
+      <c r="C49" s="3">
+        <v>36</v>
+      </c>
+      <c r="D49" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="4">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="C50" s="3">
+        <v>41</v>
+      </c>
+      <c r="D50" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="4">
-        <v>8</v>
+        <v>53</v>
+      </c>
+      <c r="C51" s="3">
+        <v>43</v>
+      </c>
+      <c r="D51" s="4">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
